--- a/Lab6/Lab6/average.xlsx
+++ b/Lab6/Lab6/average.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\C++\FA\Lab6\Lab6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE2D2C03-378E-4028-B1F1-3EC6A4ABD148}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:540008_{CF4F97C9-B95E-406E-B291-D32C33523428}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
@@ -877,9 +877,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -903,16 +912,16 @@
         <v>0.8</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1.2006699999999999</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>9.468</v>
       </c>
       <c r="E2">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -920,16 +929,16 @@
         <v>0.85</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1.8826700000000001</v>
       </c>
       <c r="C3">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>16.076699999999999</v>
       </c>
       <c r="E3">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -937,16 +946,16 @@
         <v>0.9</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>2.3786700000000001</v>
       </c>
       <c r="C4">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>24.897300000000001</v>
       </c>
       <c r="E4">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -954,16 +963,16 @@
         <v>0.95</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>3.7260800000000001</v>
       </c>
       <c r="C5">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>40.594499999999996</v>
       </c>
       <c r="E5">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -971,16 +980,16 @@
         <v>0.99</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5.1333299999999999</v>
       </c>
       <c r="C6">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="D6">
-        <v>107</v>
+        <v>106.74299999999999</v>
       </c>
       <c r="E6">
-        <v>859</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>
